--- a/biology/Médecine/Jean_Puyaubert/Jean_Puyaubert.xlsx
+++ b/biology/Médecine/Jean_Puyaubert/Jean_Puyaubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 22 juillet 1903 à Tulle, Jean Puyaubert est un radiologiste des Hôpitaux de Paris et grand collectionneur de peinture, notamment des œuvres d'André Masson. Il est mort le 9 novembre 1991 à Paris 15e[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 22 juillet 1903 à Tulle, Jean Puyaubert est un radiologiste des Hôpitaux de Paris et grand collectionneur de peinture, notamment des œuvres d'André Masson. Il est mort le 9 novembre 1991 à Paris 15e.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Venu à Paris en 1920 pour y faire ses études, grand lecteur, curieux, il a été un ami des surréalistes et surtout des membres du « Grand Jeu ». Il a été un  intime de Roger Vitrac, de Roger Gilbert-Lecomte et de Raymond Queneau. Il a été aussi proche d'Antonin Artaud qu'il a aidé financièrement.
 Une correspondance échangée entre lui et Roger Vitrac a été publiée (édition Rougerie).
